--- a/sigrity.xlsx
+++ b/sigrity.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\пособие\tcl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495DD046-6471-42BF-BE38-6E88FDCF2765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB35EC8-41B4-48F0-AEB6-993BF4C5CB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Список команж" sheetId="1" r:id="rId1"/>
-    <sheet name=" Перенос в другую папку" sheetId="2" r:id="rId2"/>
+    <sheet name="Список команд" sheetId="1" r:id="rId1"/>
+    <sheet name="файлы" sheetId="3" r:id="rId2"/>
+    <sheet name=" Перенос в другую папку" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
     <t>sigrity::add net {!}</t>
   </si>
   <si>
-    <t xml:space="preserve">sigrity::move net {D27_CLK} {D27_P} {!} </t>
-  </si>
-  <si>
-    <t>перенос цепи D27_P в папку D27_CLK</t>
-  </si>
-  <si>
     <t>sigrity::update net name {D23} {NewEntity} {!}</t>
   </si>
   <si>
@@ -55,54 +50,6 @@
     <t xml:space="preserve">} {!} </t>
   </si>
   <si>
-    <t>SGMII_RX21_M</t>
-  </si>
-  <si>
-    <t>SGMII_RX21_P</t>
-  </si>
-  <si>
-    <t>SGMII_RX20_P</t>
-  </si>
-  <si>
-    <t>SGMII_RX20_M</t>
-  </si>
-  <si>
-    <t>SGMII_RX19_P</t>
-  </si>
-  <si>
-    <t>SGMII_RX19_M</t>
-  </si>
-  <si>
-    <t>QSGMII_RX5_P</t>
-  </si>
-  <si>
-    <t>QSGMII_RX5_M</t>
-  </si>
-  <si>
-    <t>SGMII_TX21_M</t>
-  </si>
-  <si>
-    <t>SGMII_TX21_P</t>
-  </si>
-  <si>
-    <t>SGMII_TX20_P</t>
-  </si>
-  <si>
-    <t>SGMII_TX20_M</t>
-  </si>
-  <si>
-    <t>SGMII_TX19_P</t>
-  </si>
-  <si>
-    <t>SGMII_TX19_M</t>
-  </si>
-  <si>
-    <t>QSGMII_TX5_P</t>
-  </si>
-  <si>
-    <t>QSGMII_TX5_M</t>
-  </si>
-  <si>
     <t>Цепи</t>
   </si>
   <si>
@@ -118,12 +65,6 @@
     <t>выключить все цепи</t>
   </si>
   <si>
-    <t>sigrity::update net selected 1 {GMII6_CLK125_M} {!}</t>
-  </si>
-  <si>
-    <t>включить цепь GMII6_CLK125_M</t>
-  </si>
-  <si>
     <t>sigrity::move net {</t>
   </si>
   <si>
@@ -149,18 +90,170 @@
   </si>
   <si>
     <t>Описание</t>
+  </si>
+  <si>
+    <t>Общие</t>
+  </si>
+  <si>
+    <t>sigrity::open window port {!}</t>
+  </si>
+  <si>
+    <t>Открыть панель портов</t>
+  </si>
+  <si>
+    <t>удалить порт выбранный</t>
+  </si>
+  <si>
+    <t>Порты</t>
+  </si>
+  <si>
+    <t>sigrity::close window port {!}</t>
+  </si>
+  <si>
+    <t>Закрыть панель портов</t>
+  </si>
+  <si>
+    <t>sigrity::add port -all {!}</t>
+  </si>
+  <si>
+    <t>Добавить порты</t>
+  </si>
+  <si>
+    <t>Слои</t>
+  </si>
+  <si>
+    <t>sigrity::open LayoutView -layer {Signal$TOP} {!}</t>
+  </si>
+  <si>
+    <t>Перейти на слой Signal$TOP</t>
+  </si>
+  <si>
+    <t>sigrity::save {!}</t>
+  </si>
+  <si>
+    <t>Сохранить файл</t>
+  </si>
+  <si>
+    <t>sigrity::begin simulation {!}</t>
+  </si>
+  <si>
+    <t>Старт симуляции</t>
+  </si>
+  <si>
+    <t>sigrity::open CurveFile {O:\1.bnp} {!}</t>
+  </si>
+  <si>
+    <t>Файлы</t>
+  </si>
+  <si>
+    <t>Открыть файл 1.bnp</t>
+  </si>
+  <si>
+    <t>sigrity::delete port -all {!}</t>
+  </si>
+  <si>
+    <t>Удалить все порты</t>
+  </si>
+  <si>
+    <t>sigrity::check NetManager -HideDisabled {1} -GrayDisabled {0} {!}</t>
+  </si>
+  <si>
+    <t>Включить опцию HideDisabled, выключить опцию GrayDisabled</t>
+  </si>
+  <si>
+    <t>Цепь1</t>
+  </si>
+  <si>
+    <t>Цепь2</t>
+  </si>
+  <si>
+    <t>Цепь3</t>
+  </si>
+  <si>
+    <t>Цепь4</t>
+  </si>
+  <si>
+    <t>Цепь5</t>
+  </si>
+  <si>
+    <t>Цепь6</t>
+  </si>
+  <si>
+    <t>Цепь7</t>
+  </si>
+  <si>
+    <t>Цепь8</t>
+  </si>
+  <si>
+    <t>Цепь9</t>
+  </si>
+  <si>
+    <t>Цепь10</t>
+  </si>
+  <si>
+    <t>Цепь11</t>
+  </si>
+  <si>
+    <t>Цепь12</t>
+  </si>
+  <si>
+    <t>Цепь13</t>
+  </si>
+  <si>
+    <t>Цепь14</t>
+  </si>
+  <si>
+    <t>Цепь15</t>
+  </si>
+  <si>
+    <t>Цепь16</t>
+  </si>
+  <si>
+    <t>sigrity::add DiffPair {Цепь1} {Цепь2} {!}</t>
+  </si>
+  <si>
+    <t>назначить диф парами Цепь1 и Цепь2</t>
+  </si>
+  <si>
+    <t>sigrity::update net Polarity -auto {Цепь1} {Цепь2} {!}</t>
+  </si>
+  <si>
+    <t>установить полярность на цепях Цепь1 и Цепь2</t>
+  </si>
+  <si>
+    <t>sigrity::update net selected 1 {Цепь1} {!}</t>
+  </si>
+  <si>
+    <t>включить цепь Цепь1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigrity::move net {D27-Group} {D27_P} {!} </t>
+  </si>
+  <si>
+    <t>перенос цепи D27_P в папку D27-Group</t>
+  </si>
+  <si>
+    <t>sigrity::delete port port{Port32_D21_R::Цепь1} {!}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,6 +288,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -228,16 +327,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -518,32 +618,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D5:E11"/>
+  <dimension ref="D5:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="52.07421875" customWidth="1"/>
-    <col min="5" max="5" width="50.61328125" customWidth="1"/>
+    <col min="4" max="4" width="57.23046875" customWidth="1"/>
+    <col min="5" max="5" width="63.15234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D6" s="1" t="s">
-        <v>1</v>
+      <c r="D6" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.4">
@@ -551,39 +651,155 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D19" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D36" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D37" t="s">
         <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D39" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -593,11 +809,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284CADC9-D8CA-488D-BA2D-01D67F66CDB2}">
+  <dimension ref="E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058B1179-E76C-47D7-A253-4A1CE16E27E6}">
   <dimension ref="C2:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -615,27 +851,27 @@
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.4">
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.4">
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.4">
@@ -643,24 +879,24 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="str">
         <f>E4</f>
         <v>D25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" s="5" t="str">
         <f>_xlfn.CONCAT(D6:I6)</f>
-        <v xml:space="preserve">sigrity::move net {D25} {SGMII_RX21_M} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь1} {!} </v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -671,24 +907,24 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>E4</f>
         <v>D25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" s="5" t="str">
         <f t="shared" ref="K7:K21" si="0">_xlfn.CONCAT(D7:I7)</f>
-        <v xml:space="preserve">sigrity::move net {D25} {SGMII_RX21_P} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь2} {!} </v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -699,24 +935,24 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" ref="E8" si="1">E6</f>
         <v>D25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sigrity::move net {D25} {SGMII_RX20_P} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь3} {!} </v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -727,24 +963,24 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" ref="E9" si="2">E6</f>
         <v>D25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sigrity::move net {D25} {SGMII_RX20_M} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь4} {!} </v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -755,24 +991,24 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" ref="E10" si="3">E8</f>
         <v>D25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sigrity::move net {D25} {SGMII_RX19_P} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь5} {!} </v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -783,24 +1019,24 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" ref="E11" si="4">E8</f>
         <v>D25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sigrity::move net {D25} {SGMII_RX19_M} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь6} {!} </v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -811,24 +1047,24 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" ref="E12" si="5">E10</f>
         <v>D25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sigrity::move net {D25} {QSGMII_RX5_P} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь7} {!} </v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -839,24 +1075,24 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" ref="E13" si="6">E10</f>
         <v>D25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sigrity::move net {D25} {QSGMII_RX5_M} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь8} {!} </v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -867,24 +1103,24 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" ref="E14" si="7">E12</f>
         <v>D25</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sigrity::move net {D25} {SGMII_TX21_M} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь9} {!} </v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -895,24 +1131,24 @@
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" ref="E15" si="8">E12</f>
         <v>D25</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sigrity::move net {D25} {SGMII_TX21_P} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь10} {!} </v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -923,24 +1159,24 @@
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" ref="E16" si="9">E14</f>
         <v>D25</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sigrity::move net {D25} {SGMII_TX20_P} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь11} {!} </v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -951,24 +1187,24 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" ref="E17" si="10">E14</f>
         <v>D25</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sigrity::move net {D25} {SGMII_TX20_M} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь12} {!} </v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -979,24 +1215,24 @@
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" ref="E18" si="11">E16</f>
         <v>D25</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sigrity::move net {D25} {SGMII_TX19_P} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь13} {!} </v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -1007,24 +1243,24 @@
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" ref="E19" si="12">E16</f>
         <v>D25</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sigrity::move net {D25} {SGMII_TX19_M} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь14} {!} </v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -1035,24 +1271,24 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" ref="E20" si="13">E18</f>
         <v>D25</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sigrity::move net {D25} {QSGMII_TX5_P} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь15} {!} </v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -1063,30 +1299,31 @@
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" ref="E21" si="14">E18</f>
         <v>D25</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sigrity::move net {D25} {QSGMII_TX5_M} {!} </v>
+        <v xml:space="preserve">sigrity::move net {D25} {Цепь16} {!} </v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/sigrity.xlsx
+++ b/sigrity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\пособие\tcl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\пособие\tcl\sigrity-rus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB35EC8-41B4-48F0-AEB6-993BF4C5CB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE0AB3F-5CF2-45C5-B1A3-DBA61D8877B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Список команд" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
   <si>
     <t>sigrity::add net {!}</t>
   </si>
@@ -158,9 +158,6 @@
     <t>sigrity::check NetManager -HideDisabled {1} -GrayDisabled {0} {!}</t>
   </si>
   <si>
-    <t>Включить опцию HideDisabled, выключить опцию GrayDisabled</t>
-  </si>
-  <si>
     <t>Цепь1</t>
   </si>
   <si>
@@ -234,6 +231,156 @@
   </si>
   <si>
     <t>sigrity::delete port port{Port32_D21_R::Цепь1} {!}</t>
+  </si>
+  <si>
+    <t>sigrity::open window NetManager {!}</t>
+  </si>
+  <si>
+    <t>Открыть окно управление цепями</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Если это диф пара - то включается присоединенная к ней цепь</t>
+  </si>
+  <si>
+    <t>Группа цепей , объединенная в папке не включается, нужно каждую по отдельности включать</t>
+  </si>
+  <si>
+    <t>sigrity::delete DiffPair {Цепь1} {Цепь2} {!}</t>
+  </si>
+  <si>
+    <t>удалить связанность как диф пар</t>
+  </si>
+  <si>
+    <t>назначить цепями питания</t>
+  </si>
+  <si>
+    <t>sigrity::move net {PowerNets} {Цепь 1} {Цепь2} {!}</t>
+  </si>
+  <si>
+    <t>sigrity::move net {GroundNets} {Цепь 1} {Цепь2} {!}</t>
+  </si>
+  <si>
+    <t>назначить цепями земли</t>
+  </si>
+  <si>
+    <t>sigrity::move net {NULL} {Цепь 1} {Цепь2} {!}</t>
+  </si>
+  <si>
+    <t>назначить сигнальными цепями</t>
+  </si>
+  <si>
+    <t>sigrity::showObjectsofNets -nets {Цепь1} {!}</t>
+  </si>
+  <si>
+    <t>показать все подключения к Цепи1</t>
+  </si>
+  <si>
+    <t>sigrity::undo 1 {!}</t>
+  </si>
+  <si>
+    <t>sigrity::redo 1 {!}</t>
+  </si>
+  <si>
+    <t>Отменить последнее изменение</t>
+  </si>
+  <si>
+    <t>sigrity::merge net {aaa} {Цепь1} {Цепь2} {!}</t>
+  </si>
+  <si>
+    <t>создать цепь с новым названием aaa, в которую включить цепь1 и цепь 2</t>
+  </si>
+  <si>
+    <t>Перед этим необходимо разъединить диф пару</t>
+  </si>
+  <si>
+    <t>sigrity::split net {Цепь1} {!}</t>
+  </si>
+  <si>
+    <t>Разъединить Цепь 1 на разные цепи</t>
+  </si>
+  <si>
+    <t>Повторить последнее изменение</t>
+  </si>
+  <si>
+    <t>Опции</t>
+  </si>
+  <si>
+    <t>sigrity::update option -KeepShapeEn {1} {!}</t>
+  </si>
+  <si>
+    <t>sigrity::open window freq {!}</t>
+  </si>
+  <si>
+    <t>Установка частоты симуляции</t>
+  </si>
+  <si>
+    <t>igrity::check LayerSelection -ViewActiveLayer {0} {!}</t>
+  </si>
+  <si>
+    <t>Только активный слой (0 выключить ; 1 включить)</t>
+  </si>
+  <si>
+    <t>Опции Цепей</t>
+  </si>
+  <si>
+    <t>Опции Слоев</t>
+  </si>
+  <si>
+    <t>включить keep shape enabled (0 выключить ; 1 включить)</t>
+  </si>
+  <si>
+    <t>Включить опцию HideDisabled, выключить опцию GrayDisabled (0 выключить ; 1 включить)</t>
+  </si>
+  <si>
+    <t>sigrity::select {C778} {!}</t>
+  </si>
+  <si>
+    <t>Элементы</t>
+  </si>
+  <si>
+    <t>Выбрать C778</t>
+  </si>
+  <si>
+    <t>sigrity::close document {!}</t>
+  </si>
+  <si>
+    <t>Закрыть текущий документ</t>
+  </si>
+  <si>
+    <t>sigrity::open document -IgnoreMode {D:/1.spd} {!}</t>
+  </si>
+  <si>
+    <t>Открыть как основной layout файл 1.spd</t>
+  </si>
+  <si>
+    <t>sigrity::update workflow -product {PowerSI} -workflowkey {extraction} {!}</t>
+  </si>
+  <si>
+    <t>Выбор Power SI в режиме Model Extraction</t>
+  </si>
+  <si>
+    <t>sigrity::open window circuit {!}</t>
+  </si>
+  <si>
+    <t>Открыть Component manager</t>
+  </si>
+  <si>
+    <t>Слои печатной платы</t>
+  </si>
+  <si>
+    <t>sigrity::import material {E:\material_library.txt} {!}</t>
+  </si>
+  <si>
+    <t>импорт слоев платы из E:\material_library.txt</t>
+  </si>
+  <si>
+    <t>sigrity::exit -nosave {!}</t>
+  </si>
+  <si>
+    <t>Закрыть Sigrity без сохранения</t>
   </si>
 </sst>
 </file>
@@ -618,35 +765,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D5:E48"/>
+  <dimension ref="D5:G129"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="57.23046875" customWidth="1"/>
-    <col min="5" max="5" width="63.15234375" customWidth="1"/>
+    <col min="4" max="4" width="70.15234375" customWidth="1"/>
+    <col min="5" max="5" width="85.69140625" customWidth="1"/>
+    <col min="6" max="6" width="57.921875" customWidth="1"/>
+    <col min="7" max="7" width="83.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>0</v>
       </c>
@@ -654,7 +806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>1</v>
       </c>
@@ -662,7 +814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>6</v>
       </c>
@@ -670,7 +822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>7</v>
       </c>
@@ -678,128 +830,322 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D19" s="6" t="s">
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D22" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D31" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D20" t="s">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E32" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D48" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D52" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D64" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D68" t="s">
         <v>65</v>
       </c>
-      <c r="E33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D36" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D39" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D47" t="s">
+      <c r="E68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D69" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D75" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D105" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D109" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D110" t="s">
+        <v>111</v>
+      </c>
+      <c r="E110" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D119" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D48" t="s">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D120" t="s">
         <v>34</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E120" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D121" t="s">
+        <v>104</v>
+      </c>
+      <c r="E121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D128" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D129" t="s">
+        <v>99</v>
+      </c>
+      <c r="E129" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -812,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284CADC9-D8CA-488D-BA2D-01D67F66CDB2}">
   <dimension ref="E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -832,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058B1179-E76C-47D7-A253-4A1CE16E27E6}">
   <dimension ref="C2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -889,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>3</v>
@@ -917,7 +1263,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
@@ -945,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>3</v>
@@ -973,7 +1319,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>3</v>
@@ -1001,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>3</v>
@@ -1029,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>3</v>
@@ -1057,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>3</v>
@@ -1085,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>3</v>
@@ -1113,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>3</v>
@@ -1141,7 +1487,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>3</v>
@@ -1169,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>3</v>
@@ -1197,7 +1543,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>3</v>
@@ -1225,7 +1571,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>3</v>
@@ -1253,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>3</v>
@@ -1281,7 +1627,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>3</v>
@@ -1309,7 +1655,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>3</v>

--- a/sigrity.xlsx
+++ b/sigrity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\пособие\tcl\sigrity-rus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE0AB3F-5CF2-45C5-B1A3-DBA61D8877B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8B2D15-2D9D-4024-95A1-81C2267B9026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
